--- a/myCCB/www/xMDA/xMDA_tables/figure-2-table.xlsx
+++ b/myCCB/www/xMDA/xMDA_tables/figure-2-table.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -12,26 +12,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t xml:space="preserve">Year</t>
+  </si>
   <si>
     <t xml:space="preserve">Race/Ethnicity</t>
   </si>
   <si>
-    <t xml:space="preserve">Percent Increase in Adjusted Rate - 2019 to 2020</t>
+    <t xml:space="preserve">Percent Increase in Adjusted Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019 to 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">American Indian or Alaska Native</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black</t>
   </si>
   <si>
     <t xml:space="preserve">Latino</t>
   </si>
   <si>
-    <t xml:space="preserve">Asian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">American Indian or Alaska Native</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black</t>
-  </si>
-  <si>
     <t xml:space="preserve">Native Hawaiian and other Pacific Islander</t>
   </si>
   <si>
@@ -39,12 +45,15 @@
   </si>
   <si>
     <t xml:space="preserve">White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019 to 2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -84,11 +93,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:B8" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:B8"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Race/Ethnicity"/>
-    <tableColumn id="2" name="Percent Increase in Adjusted Rate - 2019 to 2020"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:C15" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:C15"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Year"/>
+    <tableColumn id="2" name="Race/Ethnicity"/>
+    <tableColumn id="3" name="Percent Increase in Adjusted Rate"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -372,15 +382,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="44.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="50.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="14.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="44.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="35.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -390,61 +401,162 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.343</v>
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.202</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="n">
-        <v>0.218</v>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.219</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.199</v>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.195</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.195</v>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.343</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.194</v>
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.193</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="n">
         <v>0.158</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.076</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.383</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="n">
-        <v>0.075</v>
+      <c r="C13" t="n">
+        <v>0.316</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.175</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.082</v>
       </c>
     </row>
   </sheetData>
